--- a/ILRG_ORAM_G_registo_membros/ILRG_ORAM_G_registo_membros-media/ILRG_ORAM_G_registo_membros.xlsx
+++ b/ILRG_ORAM_G_registo_membros/ILRG_ORAM_G_registo_membros-media/ILRG_ORAM_G_registo_membros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\oram\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_G_registo_membros\ILRG_ORAM_G_registo_membros-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5D9D4D-B30B-43BF-A0C5-A79E696565A4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909453B5-9A96-4597-BBC8-945550B07002}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2590" uniqueCount="1185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="1185">
   <si>
     <t>type</t>
   </si>
@@ -3428,15 +3428,6 @@
     <t>founder_number</t>
   </si>
   <si>
-    <t>founder_family_name</t>
-  </si>
-  <si>
-    <t>founder_given_name</t>
-  </si>
-  <si>
-    <t>founder_gender</t>
-  </si>
-  <si>
     <t>Tire uma fotografia da frente do documento da identificação</t>
   </si>
   <si>
@@ -3485,9 +3476,6 @@
     <t>Validade</t>
   </si>
   <si>
-    <t>Será que o BI é vitalício</t>
-  </si>
-  <si>
     <t>birthdate_y_n</t>
   </si>
   <si>
@@ -3597,15 +3585,34 @@
   </si>
   <si>
     <t>nao actualizado</t>
+  </si>
+  <si>
+    <t>Será que o BI é vitalício?</t>
+  </si>
+  <si>
+    <t>family_name</t>
+  </si>
+  <si>
+    <t>given_name</t>
+  </si>
+  <si>
+    <t>gender</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3838,407 +3845,403 @@
   </borders>
   <cellStyleXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="239" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="239" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="239"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="239" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="239" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="239"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="241">
@@ -4822,10 +4825,10 @@
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5139,7 +5142,7 @@
         <v>1069</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="J20" s="39" t="s">
         <v>22</v>
@@ -5167,13 +5170,13 @@
         <v>32</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>1060</v>
       </c>
       <c r="E22" s="48" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -5186,13 +5189,16 @@
       <c r="C23" s="19" t="s">
         <v>63</v>
       </c>
+      <c r="L23" s="48" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="24" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="49" t="s">
-        <v>1128</v>
+      <c r="B24" s="71" t="s">
+        <v>1182</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>64</v>
@@ -5205,8 +5211,8 @@
       <c r="A25" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="49" t="s">
-        <v>1129</v>
+      <c r="B25" s="71" t="s">
+        <v>1183</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>65</v>
@@ -5219,8 +5225,8 @@
       <c r="A26" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="49" t="s">
-        <v>1130</v>
+      <c r="B26" s="71" t="s">
+        <v>1184</v>
       </c>
       <c r="C26" s="19" t="s">
         <v>71</v>
@@ -5238,159 +5244,159 @@
       </c>
       <c r="B27" s="37"/>
     </row>
-    <row r="28" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="67" t="s">
+    <row r="28" spans="1:12" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="48" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J28" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G29" s="48" t="s">
+        <v>1174</v>
+      </c>
+      <c r="L29" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C30" s="48" t="s">
         <v>1137</v>
       </c>
-      <c r="B28" s="68" t="s">
+      <c r="G30" s="48" t="s">
+        <v>1175</v>
+      </c>
+      <c r="L30" s="48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L31" s="48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="49" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C32" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="49" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C33" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="H33" s="48" t="s">
+        <v>1138</v>
+      </c>
+      <c r="I33" s="48" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="49" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C34" s="48" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H34" s="48" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I34" s="48" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="49" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C35" s="48" t="s">
+        <v>1142</v>
+      </c>
+      <c r="L35" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="49" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C36" s="48" t="s">
+        <v>1143</v>
+      </c>
+      <c r="L36" s="48" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="48" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B37" s="49" t="s">
         <v>1148</v>
       </c>
-      <c r="C28" s="67" t="s">
-        <v>1138</v>
-      </c>
-      <c r="J28" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="L28" s="67" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="68" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C29" s="67" t="s">
-        <v>1139</v>
-      </c>
-      <c r="G29" s="67" t="s">
-        <v>1178</v>
-      </c>
-      <c r="L29" s="67" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="67" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="68" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C30" s="67" t="s">
-        <v>1140</v>
-      </c>
-      <c r="G30" s="67" t="s">
-        <v>1179</v>
-      </c>
-      <c r="L30" s="67" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="70" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C31" s="69" t="s">
-        <v>73</v>
-      </c>
-      <c r="L31" s="67" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="68" t="s">
-        <v>1153</v>
-      </c>
-      <c r="C32" s="67" t="s">
-        <v>66</v>
-      </c>
-      <c r="J32" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="L32" s="67" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="68" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C33" s="67" t="s">
-        <v>40</v>
-      </c>
-      <c r="H33" s="67" t="s">
-        <v>1141</v>
-      </c>
-      <c r="I33" s="67" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="68" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C34" s="67" t="s">
-        <v>1143</v>
-      </c>
-      <c r="H34" s="67" t="s">
-        <v>1144</v>
-      </c>
-      <c r="I34" s="67" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="68" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C35" s="67" t="s">
-        <v>1145</v>
-      </c>
-      <c r="L35" s="67" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="67" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="68" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C36" s="67" t="s">
-        <v>1146</v>
-      </c>
-      <c r="L36" s="67" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" s="67" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="67" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B37" s="68" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C37" s="67" t="s">
-        <v>1147</v>
+      <c r="C37" s="70" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="38" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -5404,7 +5410,7 @@
         <v>30</v>
       </c>
       <c r="B39" s="49" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="C39" s="48" t="s">
         <v>68</v>
@@ -5435,10 +5441,10 @@
         <v>30</v>
       </c>
       <c r="B41" s="49" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C41" s="48" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="J41" s="48" t="s">
         <v>22</v>
@@ -5449,10 +5455,10 @@
         <v>30</v>
       </c>
       <c r="B42" s="49" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="48" customFormat="1" x14ac:dyDescent="0.25">
@@ -5460,16 +5466,16 @@
         <v>29</v>
       </c>
       <c r="B43" s="49" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="C43" s="48" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="H43" s="48" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="L43" s="48" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="44" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -5496,11 +5502,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C54" sqref="C54"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20:C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5694,7 +5700,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>27</v>
@@ -5709,7 +5715,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="44" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>38</v>
@@ -5720,7 +5726,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>46</v>
@@ -5731,7 +5737,7 @@
         <v>37</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="C22" s="17" t="s">
         <v>47</v>
@@ -5742,7 +5748,7 @@
         <v>37</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>48</v>
@@ -5753,7 +5759,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="C24" s="17" t="s">
         <v>49</v>
@@ -5764,7 +5770,7 @@
         <v>37</v>
       </c>
       <c r="B25" s="44" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="C25" s="17" t="s">
         <v>50</v>
@@ -5775,7 +5781,7 @@
         <v>37</v>
       </c>
       <c r="B26" s="44" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>39</v>
@@ -5786,7 +5792,7 @@
         <v>37</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>51</v>
@@ -5797,7 +5803,7 @@
         <v>37</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>52</v>
@@ -5835,7 +5841,7 @@
         <v>54</v>
       </c>
       <c r="B32" s="66" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>55</v>
@@ -5846,7 +5852,7 @@
         <v>54</v>
       </c>
       <c r="B33" s="66" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>56</v>
@@ -5864,7 +5870,7 @@
         <v>58</v>
       </c>
       <c r="B35" s="66" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>59</v>
@@ -5875,7 +5881,7 @@
         <v>58</v>
       </c>
       <c r="B36" s="66" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>60</v>
@@ -5886,7 +5892,7 @@
         <v>58</v>
       </c>
       <c r="B37" s="66" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>61</v>
@@ -13904,11 +13910,11 @@
       <c r="A537" s="51" t="s">
         <v>1072</v>
       </c>
-      <c r="B537" s="71" t="s">
+      <c r="B537" s="67" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C537" s="68" t="s">
         <v>1180</v>
-      </c>
-      <c r="C537" s="72" t="s">
-        <v>1184</v>
       </c>
       <c r="F537" s="57" t="s">
         <v>653</v>
@@ -13919,11 +13925,11 @@
       <c r="A538" s="51" t="s">
         <v>1072</v>
       </c>
-      <c r="B538" s="71" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C538" s="72" t="s">
-        <v>1184</v>
+      <c r="B538" s="67" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C538" s="68" t="s">
+        <v>1180</v>
       </c>
       <c r="F538" s="57" t="s">
         <v>653</v>
@@ -13934,11 +13940,11 @@
       <c r="A539" s="51" t="s">
         <v>1072</v>
       </c>
-      <c r="B539" s="71" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C539" s="72" t="s">
-        <v>1184</v>
+      <c r="B539" s="67" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C539" s="68" t="s">
+        <v>1180</v>
       </c>
       <c r="F539" s="57" t="s">
         <v>653</v>
@@ -13949,11 +13955,11 @@
       <c r="A540" s="51" t="s">
         <v>1072</v>
       </c>
-      <c r="B540" s="73" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C540" s="72" t="s">
-        <v>1184</v>
+      <c r="B540" s="69" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C540" s="68" t="s">
+        <v>1180</v>
       </c>
       <c r="D540" s="65"/>
       <c r="E540" s="65"/>
@@ -31328,8 +31334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31363,7 +31369,7 @@
         <v>1080</v>
       </c>
       <c r="C2" s="47">
-        <v>201904021</v>
+        <v>201904031</v>
       </c>
       <c r="D2" s="48" t="s">
         <v>1081</v>

--- a/ILRG_ORAM_G_registo_membros/ILRG_ORAM_G_registo_membros-media/ILRG_ORAM_G_registo_membros.xlsx
+++ b/ILRG_ORAM_G_registo_membros/ILRG_ORAM_G_registo_membros-media/ILRG_ORAM_G_registo_membros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\oram\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_G_registo_membros\ILRG_ORAM_G_registo_membros-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909453B5-9A96-4597-BBC8-945550B07002}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F6657B-CED0-447C-8BB1-C7DCE28C96E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="settings" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$C$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">choices!$A$1:$C$28</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2591" uniqueCount="1185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2627" uniqueCount="1207">
   <si>
     <t>type</t>
   </si>
@@ -3598,14 +3598,87 @@
   <si>
     <t>gender</t>
   </si>
+  <si>
+    <t>Bonefacio_Basílio</t>
+  </si>
+  <si>
+    <t>Bonefacio Basílio</t>
+  </si>
+  <si>
+    <t>Calisto_Agostinho_Inácio</t>
+  </si>
+  <si>
+    <t>Calisto Agostinho Inácio</t>
+  </si>
+  <si>
+    <t>Celestina_Armando</t>
+  </si>
+  <si>
+    <t>Celestina Armando</t>
+  </si>
+  <si>
+    <t>Celestina_Joaquim_Muanavava</t>
+  </si>
+  <si>
+    <t>Celestina Joaquim Muanavava</t>
+  </si>
+  <si>
+    <t>Constantino_Jerónimo</t>
+  </si>
+  <si>
+    <t>Constantino Jerónimo</t>
+  </si>
+  <si>
+    <t>Costa_António</t>
+  </si>
+  <si>
+    <t>Costa António</t>
+  </si>
+  <si>
+    <t>Damacio_Feliciano</t>
+  </si>
+  <si>
+    <t>Damacio Feliciano</t>
+  </si>
+  <si>
+    <t>Diosa_Alberto</t>
+  </si>
+  <si>
+    <t>Diosa Alberto</t>
+  </si>
+  <si>
+    <t>Olinda_Rui_Muquelesse</t>
+  </si>
+  <si>
+    <t>Olinda Rui Muquelesse</t>
+  </si>
+  <si>
+    <t>Xerife_Gabriel</t>
+  </si>
+  <si>
+    <t>Xerife Gabriel</t>
+  </si>
+  <si>
+    <t>Zito_Afonso</t>
+  </si>
+  <si>
+    <t>Zito Afonso</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3845,404 +3918,412 @@
   </borders>
   <cellStyleXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="234" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="234" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="239" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="239" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="239"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="239" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="233" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="239" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="239"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="240" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="241">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5500,19 +5581,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20:C48"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="19.625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.125" style="5" customWidth="1"/>
     <col min="4" max="16384" width="10.875" style="5"/>
   </cols>
@@ -5535,489 +5616,626 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="73" t="s">
         <v>1100</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="74" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="73" t="s">
         <v>1075</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="74" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="73" t="s">
         <v>1102</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="74" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+    <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="73" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C6" s="75" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C7" s="75" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="73" t="s">
         <v>1104</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C10" s="74" t="s">
         <v>1105</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="58" t="s">
+    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B11" s="73" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="73" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="73" t="s">
         <v>1106</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C13" s="74" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="58" t="s">
+    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B14" s="73" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C14" s="75" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="73" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C15" s="75" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="73" t="s">
         <v>1108</v>
       </c>
-      <c r="C8" s="60" t="s">
+      <c r="C16" s="74" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="66" t="s">
+      <c r="B17" s="73" t="s">
         <v>1110</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C17" s="74" t="s">
         <v>1111</v>
       </c>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B18" s="73" t="s">
         <v>1112</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C18" s="74" t="s">
         <v>1113</v>
       </c>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B19" s="73" t="s">
         <v>1114</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C19" s="74" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B20" s="73" t="s">
         <v>1116</v>
       </c>
-      <c r="C12" s="60" t="s">
+      <c r="C20" s="74" t="s">
         <v>1117</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="58" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="66" t="s">
+      <c r="B21" s="73" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C21" s="75" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="73" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="73" t="s">
         <v>1118</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C23" s="74" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
+      <c r="D23" s="13"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="66" t="s">
+      <c r="B24" s="73" t="s">
         <v>1120</v>
       </c>
-      <c r="C14" s="60" t="s">
+      <c r="C24" s="74" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="58" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B25" s="73" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="73" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="73" t="s">
         <v>1077</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C27" s="72" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="58"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="58"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="66" t="s">
+      <c r="B30" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="66" t="s">
+      <c r="B31" s="66" t="s">
         <v>1159</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B33" s="44" t="s">
         <v>1160</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C33" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B21" s="44" t="s">
+      <c r="B34" s="44" t="s">
         <v>1168</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C34" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B35" s="44" t="s">
         <v>1163</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C35" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B36" s="44" t="s">
         <v>1165</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C36" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="44" t="s">
+      <c r="B37" s="44" t="s">
         <v>1166</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C37" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+    <row r="38" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="44" t="s">
+      <c r="B38" s="44" t="s">
         <v>1162</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C38" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+    <row r="39" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="44" t="s">
+      <c r="B39" s="44" t="s">
         <v>1167</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C39" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+    <row r="40" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="44" t="s">
+      <c r="B40" s="44" t="s">
         <v>1161</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C40" s="17" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+    <row r="41" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="44" t="s">
+      <c r="B41" s="44" t="s">
         <v>1164</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C41" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+    <row r="42" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="B42" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C42" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+    <row r="43" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B43" s="44" t="s">
         <v>1077</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C43" s="45" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+    <row r="44" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="66" t="s">
+      <c r="B45" s="66" t="s">
         <v>1169</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C45" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+    <row r="46" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="66" t="s">
+      <c r="B46" s="66" t="s">
         <v>1170</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C46" s="18" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18"/>
-      <c r="B34" s="29" t="s">
+    <row r="47" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="18"/>
-    </row>
-    <row r="35" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="C47" s="18"/>
+    </row>
+    <row r="48" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="66" t="s">
+      <c r="B48" s="66" t="s">
         <v>1171</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C48" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="66" t="s">
+      <c r="B49" s="66" t="s">
         <v>1172</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C49" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="66" t="s">
+      <c r="B50" s="66" t="s">
         <v>1173</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C50" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B52" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C52" s="24" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B53" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C53" s="24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B54" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C54" s="24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="23" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B55" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C55" s="24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B56" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C56" s="24" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B57" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C57" s="24" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B58" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C58" s="24" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="23" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B59" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C59" s="24" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B60" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C60" s="24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B61" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C61" s="24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="2:2" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="41"/>
-    </row>
-    <row r="51" spans="2:2" s="42" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="41"/>
+    <row r="63" spans="1:3" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="41"/>
+    </row>
+    <row r="64" spans="1:3" s="42" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C15" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A927:C955">
-    <sortCondition ref="C927:C955"/>
+  <autoFilter ref="A1:C28" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A940:C968">
+    <sortCondition ref="C940:C968"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -6029,7 +6247,7 @@
   <dimension ref="A1:G4198"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A517" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A457" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J534" sqref="J534"/>
     </sheetView>
   </sheetViews>
@@ -31334,8 +31552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31369,7 +31587,7 @@
         <v>1080</v>
       </c>
       <c r="C2" s="47">
-        <v>201904031</v>
+        <v>201904101</v>
       </c>
       <c r="D2" s="48" t="s">
         <v>1081</v>

--- a/ILRG_ORAM_G_registo_membros/ILRG_ORAM_G_registo_membros-media/ILRG_ORAM_G_registo_membros.xlsx
+++ b/ILRG_ORAM_G_registo_membros/ILRG_ORAM_G_registo_membros-media/ILRG_ORAM_G_registo_membros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\projects\ILRG\oram\ODK Forms\ILRG_ORAM_odk_forms\ILRG_ORAM_G_registo_membros\ILRG_ORAM_G_registo_membros-media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B14C446-6250-4293-80BA-D53592264C91}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C24C0B6-1712-45D0-AC60-E6553486B0DC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="1206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2631" uniqueCount="1212">
   <si>
     <t>type</t>
   </si>
@@ -3660,6 +3660,24 @@
   </si>
   <si>
     <t>Wiwanana [Muelamassi]</t>
+  </si>
+  <si>
+    <t>AS040023</t>
+  </si>
+  <si>
+    <t>Vahane Murima [Muyeye]</t>
+  </si>
+  <si>
+    <t>AS040024</t>
+  </si>
+  <si>
+    <t>Nari None [Inhanhane]</t>
+  </si>
+  <si>
+    <t>AS040025</t>
+  </si>
+  <si>
+    <t>Ohaua [Maripiha]</t>
   </si>
 </sst>
 </file>
@@ -6234,9 +6252,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF73BB13-3765-47C5-AFDA-A273CD8B2F1A}">
   <dimension ref="A1:G4196"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A527" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C543" sqref="C543"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A530" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A537" sqref="A537:F541"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14117,10 +14135,10 @@
         <v>1072</v>
       </c>
       <c r="B537" s="69" t="s">
-        <v>1202</v>
+        <v>1208</v>
       </c>
       <c r="C537" s="72" t="s">
-        <v>1204</v>
+        <v>1209</v>
       </c>
       <c r="F537" s="55" t="s">
         <v>653</v>
@@ -14132,10 +14150,10 @@
         <v>1072</v>
       </c>
       <c r="B538" s="69" t="s">
-        <v>1203</v>
+        <v>1210</v>
       </c>
       <c r="C538" s="72" t="s">
-        <v>1205</v>
+        <v>1211</v>
       </c>
       <c r="F538" s="55" t="s">
         <v>653</v>
@@ -14143,19 +14161,46 @@
       <c r="G538" s="56"/>
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A539" s="51"/>
-      <c r="B539" s="69"/>
-      <c r="C539" s="56"/>
+      <c r="A539" s="51" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B539" s="69" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C539" s="72" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F539" s="55" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A540" s="51"/>
-      <c r="B540" s="69"/>
-      <c r="C540" s="56"/>
+      <c r="A540" s="51" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B540" s="69" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C540" s="72" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F540" s="55" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A541" s="51"/>
-      <c r="B541" s="69"/>
-      <c r="C541" s="56"/>
+      <c r="A541" s="51" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B541" s="69" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C541" s="72" t="s">
+        <v>1205</v>
+      </c>
+      <c r="F541" s="55" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="51"/>
@@ -31500,6 +31545,9 @@
       <c r="A4196" s="51"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B537:F541">
+    <sortCondition ref="C537:C541"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -31509,8 +31557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31544,7 +31592,7 @@
         <v>1080</v>
       </c>
       <c r="C2" s="47">
-        <v>201904103</v>
+        <v>201904171</v>
       </c>
       <c r="D2" s="48" t="s">
         <v>1081</v>
